--- a/biology/Médecine/Pronation/Pronation.xlsx
+++ b/biology/Médecine/Pronation/Pronation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le membre supérieur est en pronation lorsque les paumes sont tournées vers l'arrière ou vers le sol et le radius se trouve alors devant l'ulna. La position de référence en anatomie n'est pas cette position de l'avant-bras mais la supination qui correspond aux paumes tournées vers l'avant, le radius étant alors en position latérale et l'ulna en position médiale.
-Le terme est parfois associé au mouvement du pied[4].
+Le terme est parfois associé au mouvement du pied.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pronation douloureuse des enfants est une douleur du bras avec paresthésie, survenant lors de la traction brusque sur le bras. L'exemple type en est le jeune enfant que l'on retient par la main lors d'un danger[5].
-Le phénomène de la pronation décrit par Joseph Babinski fait que, lors d'une hémiplégie flasque, la main du côté atteint, placée en supination, se remet spontanément en pronation[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pronation douloureuse des enfants est une douleur du bras avec paresthésie, survenant lors de la traction brusque sur le bras. L'exemple type en est le jeune enfant que l'on retient par la main lors d'un danger.
+Le phénomène de la pronation décrit par Joseph Babinski fait que, lors d'une hémiplégie flasque, la main du côté atteint, placée en supination, se remet spontanément en pronation.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gauche pronation, (milieu), droite supination.
@@ -577,9 +593,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans La Cène de Léonard de Vinci, le bras gauche de Jésus est en supination, et le droit en pronation[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans La Cène de Léonard de Vinci, le bras gauche de Jésus est en supination, et le droit en pronation.
 </t>
         </is>
       </c>
